--- a/VIAMAO.xlsx
+++ b/VIAMAO.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ADE434E-9DFD-4AA6-B8B8-DA60CED56C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46BCFA6E-64E2-40E4-ACFB-6648FF3743EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
+    <sheet name="Paineis DARQ" sheetId="9" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
@@ -21,13 +21,14 @@
     <sheet name="TCA" sheetId="5" r:id="rId6"/>
     <sheet name="Recolhimento x Eliminacao" sheetId="6" r:id="rId7"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="7" r:id="rId8"/>
+    <sheet name="DGC" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="359">
   <si>
     <t>COMARCA</t>
   </si>
@@ -1092,6 +1093,18 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>TEMÁTICA</t>
+  </si>
+  <si>
+    <t>PROBLEMA</t>
+  </si>
+  <si>
+    <t>MAOBRAS/MATIC</t>
+  </si>
+  <si>
+    <t>Muitas correções do ateste.</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1115,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot; &quot;mmmm&quot; / &quot;yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1155,6 +1168,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1169,7 +1195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1216,6 +1242,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB7E1CD"/>
         <bgColor rgb="FFB7E1CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1288,9 +1320,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1380,12 +1412,16 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{36D35E2B-43F8-4ED5-8E9D-421ABB8392D7}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{8116AE77-634C-4578-A388-741375B5436E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1415,10 +1451,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423B684F-7FD0-47FF-9496-2FF9906199EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E24F23D0-B73D-4752-A58B-528329BF6D4C}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1456,7 +1492,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A228E2-C7FE-40AB-AC6A-1AA4375DD9A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4220DE21-6B59-477D-AAEF-399F8F8D012D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1519,7 +1555,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF32B193-C84A-407A-944F-6854FC38D9F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49BE186-98DC-48DD-89DC-F8265D145D4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1538,7 +1574,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BD1BD71-F65F-427B-B65A-976B0BC0814C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2C6A81A-259C-679A-8E68-ADEF4A2C44A8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1587,7 +1623,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{545D80C0-4218-AF54-F8F7-9FF2ED637BBA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D4BA9B-5B45-36FA-66C8-4D301F7B63C2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1606,7 +1642,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED6C0FD-A350-0F9D-EE01-527ECD17FE04}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC94C04-A399-7DF1-6650-9864D2D7F38D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1637,7 +1673,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C751C477-22DD-5175-8C13-5D1D4618A34D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A08ABE-38E4-86F0-2FCC-2020A5C2D854}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1668,7 +1704,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33957269-F45E-3B9E-BFB5-3985B1AA56FE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9816DF74-1048-292F-2824-F4C0F07B88AE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1711,7 +1747,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A21D065-F18E-49C1-BDED-7A055802AC65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C366AC29-14C6-49F0-A8E5-3EC6921FD53C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1749,7 +1785,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE12FF15-E61E-41F2-BF96-B14C2736DED0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AAA7A34-3E49-4D28-895C-B1BE49DBAC92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1792,7 +1828,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFABF35D-23DD-4C80-9751-B1CF7F16AFAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6374A08-3C29-445B-A26B-0F724D3F2C30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2105,7 +2141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86770B7-42B2-43DE-B011-1619F3850E46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55C20BC-5C02-4C56-98D6-3A926DBF865A}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2117,98 +2153,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="38"/>
-    <col min="6" max="6" width="2" style="38" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="38" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="38"/>
+    <col min="1" max="5" width="12.5703125" style="40"/>
+    <col min="6" max="6" width="2" style="40" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="40" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="37"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="37"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="37"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="37"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="37"/>
+      <c r="F5" s="39"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="37"/>
+      <c r="F6" s="39"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="37"/>
+      <c r="F7" s="39"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="37"/>
+      <c r="F8" s="39"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="37"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="37"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="37"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="37"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="37"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="37"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="37"/>
+      <c r="F15" s="39"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="37"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="37"/>
+      <c r="F17" s="39"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="37"/>
+      <c r="F18" s="39"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="37"/>
+      <c r="F19" s="39"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="37"/>
+      <c r="F20" s="39"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="37"/>
+      <c r="F21" s="39"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="37"/>
+      <c r="F22" s="39"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="37"/>
+      <c r="F23" s="39"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="37"/>
+      <c r="F24" s="39"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="37"/>
+      <c r="F25" s="39"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="37"/>
+      <c r="F26" s="39"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="37"/>
+      <c r="F27" s="39"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="37"/>
+      <c r="F28" s="39"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="37"/>
+      <c r="F29" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -7295,4 +7331,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>358</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/VIAMAO.xlsx
+++ b/VIAMAO.xlsx
@@ -8,27 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46BCFA6E-64E2-40E4-ACFB-6648FF3743EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E91C3C54-32C0-4F43-A82C-24E562DFF604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="9" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="8" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
     <sheet name="TCA" sheetId="5" r:id="rId6"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="6" r:id="rId7"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="7" r:id="rId8"/>
-    <sheet name="DGC" sheetId="8" r:id="rId9"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="6" r:id="rId7"/>
+    <sheet name="DGC" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="357">
   <si>
     <t>COMARCA</t>
   </si>
@@ -1087,12 +1086,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
   <si>
     <t>TEMÁTICA</t>
@@ -1322,7 +1315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1397,21 +1390,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1421,7 +1399,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{8116AE77-634C-4578-A388-741375B5436E}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{DD9E7B4D-8CAD-4EA5-9C92-3A0178B6CBF4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1451,10 +1429,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E24F23D0-B73D-4752-A58B-528329BF6D4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37DF1C91-5D6A-444E-8E2E-9B96014DC134}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1492,7 +1470,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4220DE21-6B59-477D-AAEF-399F8F8D012D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C65689F-7B40-493F-B775-E111D69A1A53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1555,7 +1533,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49BE186-98DC-48DD-89DC-F8265D145D4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC7F8D3-025E-4093-A16D-A1B42477C630}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1552,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2C6A81A-259C-679A-8E68-ADEF4A2C44A8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{995C2273-1567-F830-05AE-76D05E65969A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1623,7 +1601,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D4BA9B-5B45-36FA-66C8-4D301F7B63C2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD44AFC-FE10-AB1A-8BD7-4FB3113BAD6B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1642,7 +1620,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC94C04-A399-7DF1-6650-9864D2D7F38D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22963DFB-C70F-919D-2712-B438226AB2AB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1673,7 +1651,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A08ABE-38E4-86F0-2FCC-2020A5C2D854}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0100D398-12A7-2593-F1F4-5F83E9F477FF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1704,7 +1682,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9816DF74-1048-292F-2824-F4C0F07B88AE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B2F866-552F-F035-90FF-C214A9974989}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1747,7 +1725,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C366AC29-14C6-49F0-A8E5-3EC6921FD53C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84FFF8FC-B948-4FF3-B270-0B818198D703}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1785,7 +1763,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AAA7A34-3E49-4D28-895C-B1BE49DBAC92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8A2CBA9-E5D5-46BE-B9D7-67AF8FEE2B8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1828,7 +1806,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6374A08-3C29-445B-A26B-0F724D3F2C30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{256E3DB2-6725-475B-9D2D-3CF11EA7A34D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2141,7 +2119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55C20BC-5C02-4C56-98D6-3A926DBF865A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C754B153-7DA4-4741-BE0D-18E2BFA92F28}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2153,98 +2131,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="40"/>
-    <col min="6" max="6" width="2" style="40" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="40" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="40"/>
+    <col min="1" max="5" width="12.5703125" style="35"/>
+    <col min="6" max="6" width="2" style="35" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="35" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="39"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="39"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="39"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="39"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="39"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="39"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="39"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="39"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="39"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="39"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="39"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="39"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="39"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="39"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="39"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="39"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="39"/>
+      <c r="F17" s="34"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="39"/>
+      <c r="F18" s="34"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="39"/>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="39"/>
+      <c r="F20" s="34"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="39"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="39"/>
+      <c r="F22" s="34"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="39"/>
+      <c r="F23" s="34"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="39"/>
+      <c r="F24" s="34"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="39"/>
+      <c r="F25" s="34"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="39"/>
+      <c r="F26" s="34"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="39"/>
+      <c r="F27" s="34"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="39"/>
+      <c r="F28" s="34"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="39"/>
+      <c r="F29" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -7287,54 +7265,6 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>354</v>
-      </c>
-      <c r="E1" s="33">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="B2" s="36">
-        <v>79</v>
-      </c>
-      <c r="C2" s="34">
-        <v>5.2241766962042059E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7347,25 +7277,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C2" s="33" t="s">
         <v>356</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>357</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/VIAMAO.xlsx
+++ b/VIAMAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E91C3C54-32C0-4F43-A82C-24E562DFF604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40C2BA71-D3DE-4190-A502-BD37152E32D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1399,7 +1399,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{DD9E7B4D-8CAD-4EA5-9C92-3A0178B6CBF4}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{8750556B-83B0-4146-B03A-4A4CA366E8B0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1429,10 +1429,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37DF1C91-5D6A-444E-8E2E-9B96014DC134}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC694957-5B4D-43C0-A9D0-81648B86E515}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1470,7 +1470,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C65689F-7B40-493F-B775-E111D69A1A53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44B3580C-331F-4490-B317-48CBB1065E2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1533,7 +1533,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC7F8D3-025E-4093-A16D-A1B42477C630}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34860A7D-EF74-4690-B651-30C8D785F662}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1552,7 +1552,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{995C2273-1567-F830-05AE-76D05E65969A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFDB6273-6A79-37FD-318A-289433DA0C60}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1601,7 +1601,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD44AFC-FE10-AB1A-8BD7-4FB3113BAD6B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14350461-AE66-6836-241C-AC21ACCE362A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1620,7 +1620,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22963DFB-C70F-919D-2712-B438226AB2AB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD458CBF-C989-B284-57D5-E88AAF88386E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1651,7 +1651,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0100D398-12A7-2593-F1F4-5F83E9F477FF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A50B689-C66E-25C2-CCCB-FACD651697FB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1682,7 +1682,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B2F866-552F-F035-90FF-C214A9974989}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{778FC664-0E38-F88C-28B7-296A6F1ADF14}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1725,7 +1725,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84FFF8FC-B948-4FF3-B270-0B818198D703}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6314CD-C412-4A92-B013-C40BEF9DC39B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1763,7 +1763,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8A2CBA9-E5D5-46BE-B9D7-67AF8FEE2B8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FD04F2D-2278-4836-B7D2-0C9F1D519F38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1788,50 +1788,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{256E3DB2-6725-475B-9D2D-3CF11EA7A34D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2119,7 +2075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C754B153-7DA4-4741-BE0D-18E2BFA92F28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFDD96F-50D2-4F2A-9C38-0CAD8454EC01}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
